--- a/data/trans_bre/P17G_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P17G_R-Edad-trans_bre.xlsx
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-5.873944580407754</v>
+        <v>-6.390529967728277</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-1.962468915971591</v>
+        <v>-1.450334037644423</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-1.614053887816163</v>
+        <v>-1.996636251244094</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-7.318240249929546</v>
+        <v>-8.212946466948347</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.05964551875564529</v>
+        <v>-0.06771051921062905</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.02060519125233054</v>
+        <v>-0.01513475064697197</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.01638141772667035</v>
+        <v>-0.02022084242167453</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.07468937672916365</v>
+        <v>-0.08664803918504617</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>16.00264324799253</v>
+        <v>13.32388524457596</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>18.66162105367286</v>
+        <v>18.63773616240024</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>12.49807192872198</v>
+        <v>12.2839306472024</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>45.14940715613211</v>
+        <v>44.19684613618274</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.1947142850819325</v>
+        <v>0.1625209307980891</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2392389948086507</v>
+        <v>0.2407169172694997</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1474398614254786</v>
+        <v>0.1422228593747091</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.8582733555635562</v>
+        <v>0.8868744460558324</v>
       </c>
     </row>
     <row r="7">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-2.95384000803442</v>
+        <v>-2.341687966272412</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-4.495762398493723</v>
+        <v>-4.269489996795831</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-1.040266151657101</v>
+        <v>-0.6582800011504724</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-12.58357767125253</v>
+        <v>-12.04980288775203</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.03349702700906831</v>
+        <v>-0.02655130416603141</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.04568077348001274</v>
+        <v>-0.04354985382704508</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.01060307674562196</v>
+        <v>-0.01088706205822919</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.1341880811605911</v>
+        <v>-0.1275271124029084</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>18.5466683362087</v>
+        <v>19.25970346706252</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>7.42732649696261</v>
+        <v>7.766401169052394</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>19.95226810055728</v>
+        <v>18.68567095217997</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>11.19918040412057</v>
+        <v>11.82288843157705</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.2599239642083923</v>
+        <v>0.2677504291831231</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.08476613432908313</v>
+        <v>0.08949055508716501</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2726648519313691</v>
+        <v>0.2534743169630875</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.1417813016743009</v>
+        <v>0.1466662089252629</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>-0.3632468784217968</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>4.301831109117393</v>
+        <v>4.301831109117382</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.04839394520218967</v>
@@ -849,7 +849,7 @@
         <v>-0.003953576494623818</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.05142106216086374</v>
+        <v>0.0514210621608636</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-2.477643454548165</v>
+        <v>-2.653198913927798</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-5.075860592230294</v>
+        <v>-4.166408168697898</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-6.033094752095701</v>
+        <v>-7.006388591787953</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-3.906213639015875</v>
+        <v>-4.790218468381833</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.02603186564240835</v>
+        <v>-0.0273581189687028</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.05260046766054083</v>
+        <v>-0.04417671820283565</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.06327756499973204</v>
+        <v>-0.07354104954419879</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.04426978656843816</v>
+        <v>-0.05239743757172387</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>13.22438326110886</v>
+        <v>12.4358560273736</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>8.755167987863663</v>
+        <v>8.023159812680468</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>5.987226047695886</v>
+        <v>5.668568528707922</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>15.66002032078514</v>
+        <v>14.49978907524773</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.1625802096881921</v>
+        <v>0.1522794038930087</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.09982426594786827</v>
+        <v>0.09195931000480959</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.06734677956048928</v>
+        <v>0.06459372771787705</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.2057194307454828</v>
+        <v>0.1896357644166621</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>5.244459827150938</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>-1.824839216090457</v>
+        <v>-1.824839216090512</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0912471563256736</v>
@@ -949,7 +949,7 @@
         <v>0.05983246650083221</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>-0.02074216789222645</v>
+        <v>-0.02074216789222708</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-0.1504280543378907</v>
+        <v>-0.675861940856447</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>3.290981964564462</v>
+        <v>4.125274505137593</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-1.00742539235432</v>
+        <v>-1.298130757463683</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-8.520605615429339</v>
+        <v>-8.577975097600405</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.001716900502464287</v>
+        <v>-0.006487663230122087</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.03436885759372977</v>
+        <v>0.04429310814970765</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.01044986640287194</v>
+        <v>-0.01384316350421889</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.09291266178075973</v>
+        <v>-0.09354320982180357</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>17.42829308848622</v>
+        <v>17.54241849218164</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>17.64049554965003</v>
+        <v>17.23822077930939</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>11.89617255877755</v>
+        <v>12.35649130833283</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>5.777857130160583</v>
+        <v>5.497969965421366</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.227468046094751</v>
+        <v>0.232772921307726</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2178189982178783</v>
+        <v>0.2157320007058827</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1426412437203798</v>
+        <v>0.1500157402537357</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.07031434944419213</v>
+        <v>0.06640676398965098</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>1.674220991253839</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>-2.548280967008076</v>
+        <v>-2.548280967008121</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01653389150635303</v>
@@ -1049,7 +1049,7 @@
         <v>0.01821252465987916</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>-0.02749425161609631</v>
+        <v>-0.02749425161609679</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-5.158869801112609</v>
+        <v>-4.810009972433711</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-0.5814761354476142</v>
+        <v>-0.8839753545047744</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-4.568798082569154</v>
+        <v>-4.188369253248956</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-7.932556733948093</v>
+        <v>-7.735472674329685</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.05393997698076307</v>
+        <v>-0.04990767713802731</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.005602086631220308</v>
+        <v>-0.008282013280619747</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.04871066161853285</v>
+        <v>-0.04354448212532049</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.0829200363828396</v>
+        <v>-0.08151978494348824</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>8.281993079481293</v>
+        <v>8.241352233569492</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>11.84860112249039</v>
+        <v>11.02731964744035</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>7.739361842942694</v>
+        <v>8.04557149170993</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>3.105456625683947</v>
+        <v>3.141717939313936</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.09428156957080723</v>
+        <v>0.09412131246121405</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1394870350757677</v>
+        <v>0.1281342432198607</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.08797733466506909</v>
+        <v>0.09160124557209184</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.03483806137386387</v>
+        <v>0.03512327388695443</v>
       </c>
     </row>
     <row r="19">
@@ -1137,7 +1137,7 @@
         <v>-2.193935855237161</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>3.885326412061973</v>
+        <v>3.885326412061985</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01761899555140756</v>
@@ -1149,7 +1149,7 @@
         <v>-0.02261888122857211</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>0.04299279982389559</v>
+        <v>0.04299279982389571</v>
       </c>
     </row>
     <row r="20">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-2.725450019437509</v>
+        <v>-2.494316966913967</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-4.842122114708661</v>
+        <v>-4.250851903318745</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-7.04558374843404</v>
+        <v>-6.901378459763629</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>-1.206101053074921</v>
+        <v>-1.667619997091111</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.02751575889079029</v>
+        <v>-0.02553073693510841</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.04993529401319398</v>
+        <v>-0.04371818538397165</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.07253095479588727</v>
+        <v>-0.06993031028186093</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.01291476132698506</v>
+        <v>-0.01815244865552593</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>6.378827317740261</v>
+        <v>6.002903144484708</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>6.174876444573256</v>
+        <v>6.529819399455153</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>2.517143149496389</v>
+        <v>2.186589288380266</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>9.610462554755852</v>
+        <v>9.411352860268217</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.07001425015565434</v>
+        <v>0.06540188169596207</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.06777478449130082</v>
+        <v>0.0723158149776669</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.02617433879633689</v>
+        <v>0.02282272776098395</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.112076243672552</v>
+        <v>0.1086889709377843</v>
       </c>
     </row>
     <row r="22">
@@ -1237,7 +1237,7 @@
         <v>2.806796665901146</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>-1.930029707136605</v>
+        <v>-1.930029707136616</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01491659059758556</v>
@@ -1249,7 +1249,7 @@
         <v>0.02957052695803383</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>-0.020280633238741</v>
+        <v>-0.02028063323874112</v>
       </c>
     </row>
     <row r="23">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-2.299795002157149</v>
+        <v>-1.931893883740115</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-5.964860196385516</v>
+        <v>-6.084520418723912</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-1.552583130398217</v>
+        <v>-1.48045036213323</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-6.205081480141163</v>
+        <v>-6.370380513874714</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.02307644904051923</v>
+        <v>-0.01960297438853589</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.06046405582897078</v>
+        <v>-0.06140943384429619</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>-0.01572572772470178</v>
+        <v>-0.01461736396796095</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>-0.06374097966380091</v>
+        <v>-0.06574694157433052</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>7.026389024653877</v>
+        <v>6.879483452801008</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.1471720017962115</v>
+        <v>0.2968707721103921</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>9.438374393418584</v>
+        <v>8.749573854960643</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>3.86082339421779</v>
+        <v>3.90774150933433</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.07572810606065482</v>
+        <v>0.07431947001492761</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.001500556903568869</v>
+        <v>0.002987033423961315</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1070741192176153</v>
+        <v>0.09810755170130188</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.04182133507011769</v>
+        <v>0.04274377741835847</v>
       </c>
     </row>
     <row r="25">
@@ -1337,7 +1337,7 @@
         <v>2.555806507209646</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>0.3945083070594824</v>
+        <v>0.3945083070594935</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.03544072389981508</v>
@@ -1349,7 +1349,7 @@
         <v>0.02799301350711017</v>
       </c>
       <c r="J25" s="6" t="n">
-        <v>0.004408680993777619</v>
+        <v>0.004408680993777743</v>
       </c>
     </row>
     <row r="26">
@@ -1360,28 +1360,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.728239506547543</v>
+        <v>0.5470299139223411</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.5848651604320048</v>
+        <v>0.5316565115938133</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.2760685409198902</v>
+        <v>0.14736995797621</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>-2.562992302102917</v>
+        <v>-2.483042765561517</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.007843968988115462</v>
+        <v>0.005907338153511168</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.006172600779340542</v>
+        <v>0.005692423925582712</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.003141854224443809</v>
+        <v>0.001489309579416163</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.02796405799550163</v>
+        <v>-0.02717051475988625</v>
       </c>
     </row>
     <row r="27">
@@ -1392,28 +1392,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>6.098762964805185</v>
+        <v>6.136894847373447</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>5.025739462492209</v>
+        <v>5.165168644972313</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>5.082299873238086</v>
+        <v>5.078845865280402</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>3.529176209158205</v>
+        <v>3.693717091641782</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.06862271879489125</v>
+        <v>0.06945494597031733</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.05502362094033663</v>
+        <v>0.05658305716213519</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.05716230975681327</v>
+        <v>0.05648118897905905</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.04043760405540438</v>
+        <v>0.04257052571278817</v>
       </c>
     </row>
     <row r="28">
